--- a/StructureDefinition-emr-lab-diagnostic-report.xlsx
+++ b/StructureDefinition-emr-lab-diagnostic-report.xlsx
@@ -441,7 +441,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-diagnostic-report-status-vs</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/emr-lab-diagnostic-report-status-vs</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -578,7 +578,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/ValueSet/emr-lab-order-code-vs</t>
+    <t>http://openhie.github.io/covid-19/ValueSet/emr-lab-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -831,7 +831,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://openhie.org/fhir/StructureDefinition/emr-lab-observation)
+    <t xml:space="preserve">Reference(http://openhie.github.io/covid-19/StructureDefinition/emr-lab-observation)
 </t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.28515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.15234375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
